--- a/public/assets/excel/희망리스트 최신 11월.xlsx
+++ b/public/assets/excel/희망리스트 최신 11월.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sellwing\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2866F6-BBD0-4187-AD0D-3C2731319333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B788A2-779E-43EC-8522-1C3F4EEEC8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>셀링콕</t>
   </si>
   <si>
-    <t>https://www.sellingkok.com/</t>
-  </si>
-  <si>
     <t>우측상단 파트너시스템 클릭</t>
   </si>
   <si>
@@ -290,13 +287,17 @@
   </si>
   <si>
     <t>https://domeggook.com/sc/?login=pc</t>
+  </si>
+  <si>
+    <t>https://www.sellingkok.com/shop/partner/login.php</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -321,6 +322,14 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -357,12 +366,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,9 +411,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -716,7 +732,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -750,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1063,7 +1079,7 @@
         <v>58</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1184,8 +1200,8 @@
       <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
-        <v>77</v>
+      <c r="B35" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -1197,15 +1213,15 @@
         <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
         <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
@@ -1219,10 +1235,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
         <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
@@ -1234,15 +1250,15 @@
         <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
         <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
       </c>
       <c r="C38" s="10">
         <v>2308181656</v>
@@ -1262,6 +1278,7 @@
     <hyperlink ref="B14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B35" r:id="rId6" xr:uid="{0E9026AA-8DE3-43D4-9CDA-BE1CD34ED19C}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/public/assets/excel/희망리스트 최신 11월.xlsx
+++ b/public/assets/excel/희망리스트 최신 11월.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sellwing\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F98867C-BCD2-49BF-9519-10BAF9CC067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABE81B1-FE18-40C5-A956-E11D840492B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>업체명</t>
   </si>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>http://autocarfeel.co.kr/shop/main/index.php</t>
+  </si>
+  <si>
+    <t>sungiltradekorea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -372,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,7 +721,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1013,6 +1020,12 @@
       <c r="B21" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
@@ -1020,6 +1033,12 @@
       </c>
       <c r="B22" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
